--- a/frontend/public/templates/imones_sablonas.xlsx
+++ b/frontend/public/templates/imones_sablonas.xlsx
@@ -19,12 +19,6 @@
     <t>kodas_buh_programoje</t>
   </si>
   <si>
-    <t>imones_pavadinimas</t>
-  </si>
-  <si>
-    <t>imones_kodas</t>
-  </si>
-  <si>
     <t>imones_pvm_kodas</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>LT</t>
+  </si>
+  <si>
+    <t>imones_pavadinimas*</t>
+  </si>
+  <si>
+    <t>imones_kodas*</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -425,45 +425,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>300000123</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
